--- a/bin/sheets/main_db/teams/IRE/PlayerPerformance_4294.xlsx
+++ b/bin/sheets/main_db/teams/IRE/PlayerPerformance_4294.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4294</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Andrew Robert McBrine</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Left Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Off Break</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -492,7 +557,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>08/09/2014</t>
@@ -500,7 +564,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3674</t>
+          <t>3674</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -540,7 +604,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>10/09/2014</t>
@@ -548,7 +611,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3675</t>
+          <t>3675</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -588,7 +651,6 @@
           <t>3</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>19/01/2015</t>
@@ -596,7 +658,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3733</t>
+          <t>3733</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -636,7 +698,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>16/02/2015</t>
@@ -644,7 +705,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3752</t>
+          <t>3752</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -696,7 +757,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3771</t>
+          <t>3771</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -736,7 +797,6 @@
           <t>6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>07/03/2015</t>
@@ -744,7 +804,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3777</t>
+          <t>3777</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -796,7 +856,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3829</t>
+          <t>3829</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -848,7 +908,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3839</t>
+          <t>3839</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -888,7 +948,6 @@
           <t>9</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>11/10/2015</t>
@@ -896,7 +955,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3840</t>
+          <t>3840</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -948,7 +1007,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3842</t>
+          <t>3842</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1000,7 +1059,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3902</t>
+          <t>3902</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1052,7 +1111,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3915</t>
+          <t>3915</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1092,7 +1151,6 @@
           <t>13</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>14/07/2016</t>
@@ -1100,7 +1158,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3916</t>
+          <t>3916</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1152,7 +1210,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3917</t>
+          <t>3917</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1192,7 +1250,6 @@
           <t>15</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>19/07/2016</t>
@@ -1200,7 +1257,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3918</t>
+          <t>3918</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1252,7 +1309,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3921</t>
+          <t>3921</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1304,7 +1361,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4000</t>
+          <t>4000</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1344,7 +1401,6 @@
           <t>18</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>04/03/2017</t>
@@ -1352,7 +1408,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4003</t>
+          <t>4003</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1404,7 +1460,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4007</t>
+          <t>4007</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1444,7 +1500,6 @@
           <t>20</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>19/03/2017</t>
@@ -1452,7 +1507,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4008</t>
+          <t>4008</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1504,7 +1559,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4009</t>
+          <t>4009</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1556,7 +1611,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4010</t>
+          <t>4010</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1596,7 +1651,6 @@
           <t>23</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>13/01/2018</t>
@@ -1604,7 +1658,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4107</t>
+          <t>4107</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1644,7 +1698,6 @@
           <t>24</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
           <t>16/01/2018</t>
@@ -1652,7 +1705,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4111</t>
+          <t>4111</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1692,7 +1745,6 @@
           <t>25</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
           <t>06/03/2018</t>
@@ -1700,7 +1752,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4143</t>
+          <t>4143</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1752,7 +1804,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4150</t>
+          <t>4150</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1804,7 +1856,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4152</t>
+          <t>4152</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1856,7 +1908,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4156</t>
+          <t>4156</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1908,7 +1960,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4158</t>
+          <t>4158</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1960,7 +2012,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4163</t>
+          <t>4163</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2012,7 +2064,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4189</t>
+          <t>4189</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2064,7 +2116,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4190</t>
+          <t>4190</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2116,7 +2168,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4192</t>
+          <t>4192</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2156,7 +2208,6 @@
           <t>34</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
           <t>02/03/2019</t>
@@ -2164,7 +2215,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4259</t>
+          <t>4259</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2216,7 +2267,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4262</t>
+          <t>4262</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2268,7 +2319,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4265</t>
+          <t>4265</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2308,7 +2359,6 @@
           <t>37</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
           <t>10/03/2019</t>
@@ -2316,7 +2366,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4267</t>
+          <t>4267</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2368,7 +2418,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4299</t>
+          <t>4299</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2420,7 +2470,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4301</t>
+          <t>4301</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2460,7 +2510,6 @@
           <t>40</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
           <t>01/07/2019</t>
@@ -2468,7 +2517,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4343</t>
+          <t>4343</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2520,7 +2569,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4347</t>
+          <t>4347</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2560,7 +2609,6 @@
           <t>42</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
           <t>07/07/2019</t>
@@ -2568,7 +2616,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4352</t>
+          <t>4352</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2620,7 +2668,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4391</t>
+          <t>4391</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2672,7 +2720,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4394</t>
+          <t>4394</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2724,7 +2772,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4397</t>
+          <t>4397</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2776,7 +2824,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4426</t>
+          <t>4426</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2828,7 +2876,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4427</t>
+          <t>4427</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2868,7 +2916,6 @@
           <t>48</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr">
         <is>
           <t>04/08/2020</t>
@@ -2876,7 +2923,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4428</t>
+          <t>4428</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2916,7 +2963,6 @@
           <t>49</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr">
         <is>
           <t>08/01/2021</t>
@@ -2924,7 +2970,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4439</t>
+          <t>4439</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2964,7 +3010,6 @@
           <t>50</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
           <t>18/01/2021</t>
@@ -2972,7 +3017,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4442</t>
+          <t>4442</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3024,7 +3069,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4444</t>
+          <t>4444</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3076,7 +3121,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4446</t>
+          <t>4446</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3128,7 +3173,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4448</t>
+          <t>4448</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3180,7 +3225,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4466</t>
+          <t>4466</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3220,7 +3265,6 @@
           <t>55</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
           <t>04/06/2021</t>
@@ -3228,7 +3272,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4467</t>
+          <t>4467</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3280,7 +3324,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4468</t>
+          <t>4468</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3320,7 +3364,6 @@
           <t>57</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr">
         <is>
           <t>11/07/2021</t>
@@ -3328,7 +3371,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4474</t>
+          <t>4474</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3380,7 +3423,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4475</t>
+          <t>4475</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3432,7 +3475,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4478</t>
+          <t>4478</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3484,7 +3527,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4492</t>
+          <t>4492</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3536,7 +3579,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4494</t>
+          <t>4494</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3576,7 +3619,6 @@
           <t>62</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr">
         <is>
           <t>13/09/2021</t>
@@ -3584,7 +3626,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4496</t>
+          <t>4496</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3636,7 +3678,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4519</t>
+          <t>4519</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3688,7 +3730,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4520</t>
+          <t>4520</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3740,7 +3782,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4522</t>
+          <t>4522</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3792,7 +3834,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4605</t>
+          <t>4605</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3844,7 +3886,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4608</t>
+          <t>4608</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3896,7 +3938,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4614</t>
+          <t>4614</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3936,7 +3978,6 @@
           <t>69</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr">
         <is>
           <t>18/01/2023</t>
@@ -3944,7 +3985,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4693</t>
+          <t>4693</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3996,7 +4037,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4694</t>
+          <t>4694</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4048,7 +4089,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4726</t>
+          <t>4726</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4088,7 +4129,6 @@
           <t>72</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr">
         <is>
           <t>20/03/2023</t>
@@ -4096,7 +4136,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4729</t>
+          <t>4729</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4148,7 +4188,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4734</t>
+          <t>4734</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4187,7 +4227,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4209,7 +4249,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -4246,7 +4286,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3674</t>
+          <t>3674</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -4283,7 +4323,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3675</t>
+          <t>3675</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -4320,7 +4360,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3752</t>
+          <t>3752</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -4357,7 +4397,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3771</t>
+          <t>3771</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -4394,7 +4434,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3777</t>
+          <t>3777</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -4431,7 +4471,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3829</t>
+          <t>3829</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -4468,7 +4508,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3839</t>
+          <t>3839</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -4505,7 +4545,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3840</t>
+          <t>3840</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -4542,7 +4582,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3842</t>
+          <t>3842</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -4579,7 +4619,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3902</t>
+          <t>3902</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -4616,7 +4656,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3915</t>
+          <t>3915</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -4653,7 +4693,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3916</t>
+          <t>3916</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -4690,7 +4730,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3917</t>
+          <t>3917</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -4727,7 +4767,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3918</t>
+          <t>3918</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -4764,7 +4804,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3921</t>
+          <t>3921</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -4801,7 +4841,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4000</t>
+          <t>4000</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -4838,7 +4878,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4003</t>
+          <t>4003</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -4875,7 +4915,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4007</t>
+          <t>4007</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -4912,7 +4952,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4008</t>
+          <t>4008</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -4949,7 +4989,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4009</t>
+          <t>4009</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -4986,7 +5026,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4010</t>
+          <t>4010</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -5023,7 +5063,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4107</t>
+          <t>4107</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -5060,7 +5100,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4111</t>
+          <t>4111</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -5097,7 +5137,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4143</t>
+          <t>4143</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -5134,7 +5174,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4150</t>
+          <t>4150</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -5171,7 +5211,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4152</t>
+          <t>4152</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -5208,7 +5248,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4156</t>
+          <t>4156</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -5245,7 +5285,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4158</t>
+          <t>4158</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -5282,7 +5322,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4163</t>
+          <t>4163</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -5319,7 +5359,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4189</t>
+          <t>4189</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -5356,7 +5396,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4190</t>
+          <t>4190</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -5393,7 +5433,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4192</t>
+          <t>4192</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -5430,7 +5470,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4259</t>
+          <t>4259</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -5467,7 +5507,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4262</t>
+          <t>4262</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -5504,7 +5544,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4265</t>
+          <t>4265</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -5541,7 +5581,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4267</t>
+          <t>4267</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -5578,7 +5618,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4299</t>
+          <t>4299</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -5615,7 +5655,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4301</t>
+          <t>4301</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -5652,7 +5692,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4343</t>
+          <t>4343</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -5689,7 +5729,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4347</t>
+          <t>4347</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -5726,7 +5766,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4391</t>
+          <t>4391</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -5763,7 +5803,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4394</t>
+          <t>4394</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -5800,7 +5840,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4397</t>
+          <t>4397</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -5837,7 +5877,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4426</t>
+          <t>4426</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -5874,7 +5914,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4427</t>
+          <t>4427</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -5911,7 +5951,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4428</t>
+          <t>4428</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -5948,7 +5988,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4439</t>
+          <t>4439</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -5985,7 +6025,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4442</t>
+          <t>4442</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -6022,7 +6062,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4444</t>
+          <t>4444</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -6059,7 +6099,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4446</t>
+          <t>4446</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -6096,7 +6136,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4448</t>
+          <t>4448</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -6133,7 +6173,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4466</t>
+          <t>4466</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -6170,7 +6210,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4467</t>
+          <t>4467</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -6207,7 +6247,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4468</t>
+          <t>4468</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -6244,7 +6284,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4475</t>
+          <t>4475</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -6281,7 +6321,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4478</t>
+          <t>4478</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -6318,7 +6358,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4492</t>
+          <t>4492</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -6355,7 +6395,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4496</t>
+          <t>4496</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -6392,7 +6432,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4519</t>
+          <t>4519</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -6429,7 +6469,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4520</t>
+          <t>4520</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -6466,7 +6506,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4522</t>
+          <t>4522</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -6503,7 +6543,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4605</t>
+          <t>4605</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -6540,7 +6580,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4608</t>
+          <t>4608</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -6577,7 +6617,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4614</t>
+          <t>4614</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -6614,7 +6654,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4694</t>
+          <t>4694</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -6651,7 +6691,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4726</t>
+          <t>4726</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -6688,7 +6728,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4729</t>
+          <t>4729</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -6714,6 +6754,521 @@
       <c r="G68" t="inlineStr">
         <is>
           <t>0/68</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4466</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>8.76%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4467</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4468</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>8</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1.84%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4474</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4475</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>10.34%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4478</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4492</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>8</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0.88%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4494</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4496</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4519</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4520</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>20.83%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4522</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4605</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>13.00%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4608</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>12.96%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4614</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>7.24%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4693</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4694</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>8</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2.04%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4726</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4729</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4734</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>8</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0.99%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/IRE/PlayerPerformance_4294.xlsx
+++ b/bin/sheets/main_db/teams/IRE/PlayerPerformance_4294.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6847,9 +6848,6 @@
       <c r="B3" t="n">
         <v>8</v>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6892,10 +6890,6 @@
           <t>4474</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6938,10 +6932,6 @@
           <t>4478</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6984,10 +6974,6 @@
           <t>4494</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7003,9 +6989,6 @@
       <c r="B10" t="n">
         <v>9</v>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>YES</t>
@@ -7018,10 +7001,6 @@
           <t>4519</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7064,213 +7043,521 @@
           <t>4522</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4605</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>13.00%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4608</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>12.96%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4614</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>7.24%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4693</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4694</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>8</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2.04%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4726</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4729</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4734</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>8</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0.99%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4442</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4444</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4446</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4448</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4466</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4467</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4468</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4475</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4478</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4492</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4496</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4519</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4605</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>3</v>
+          <t>4520</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>13.00%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>40.00%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4608</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>3</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>12.96%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>4522</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4614</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>3</v>
+          <t>4605</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>7.24%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4693</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
+          <t>4608</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4694</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>8</v>
-      </c>
-      <c r="C18" t="inlineStr">
+          <t>4614</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>2.04%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4726</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>4694</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4729</t>
+          <t>4726</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4734</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>8</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>0.99%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>4729</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/IRE/PlayerPerformance_4294.xlsx
+++ b/bin/sheets/main_db/teams/IRE/PlayerPerformance_4294.xlsx
@@ -1,17 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -558,6 +556,7 @@
           <t>1</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>08/09/2014</t>
@@ -605,6 +604,7 @@
           <t>2</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>10/09/2014</t>
@@ -652,6 +652,7 @@
           <t>3</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>19/01/2015</t>
@@ -699,6 +700,7 @@
           <t>4</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>16/02/2015</t>
@@ -798,6 +800,7 @@
           <t>6</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>07/03/2015</t>
@@ -949,6 +952,7 @@
           <t>9</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>11/10/2015</t>
@@ -1152,6 +1156,7 @@
           <t>13</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>14/07/2016</t>
@@ -1251,6 +1256,7 @@
           <t>15</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>19/07/2016</t>
@@ -1402,6 +1408,7 @@
           <t>18</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>04/03/2017</t>
@@ -1501,6 +1508,7 @@
           <t>20</t>
         </is>
       </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>19/03/2017</t>
@@ -1652,6 +1660,7 @@
           <t>23</t>
         </is>
       </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>13/01/2018</t>
@@ -1699,6 +1708,7 @@
           <t>24</t>
         </is>
       </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
           <t>16/01/2018</t>
@@ -1746,6 +1756,7 @@
           <t>25</t>
         </is>
       </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
           <t>06/03/2018</t>
@@ -2209,6 +2220,7 @@
           <t>34</t>
         </is>
       </c>
+      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
           <t>02/03/2019</t>
@@ -2221,7 +2233,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2360,6 +2372,7 @@
           <t>37</t>
         </is>
       </c>
+      <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
           <t>10/03/2019</t>
@@ -2511,6 +2524,7 @@
           <t>40</t>
         </is>
       </c>
+      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
           <t>01/07/2019</t>
@@ -2610,6 +2624,7 @@
           <t>42</t>
         </is>
       </c>
+      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
           <t>07/07/2019</t>
@@ -2917,6 +2932,7 @@
           <t>48</t>
         </is>
       </c>
+      <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr">
         <is>
           <t>04/08/2020</t>
@@ -2964,6 +2980,7 @@
           <t>49</t>
         </is>
       </c>
+      <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr">
         <is>
           <t>08/01/2021</t>
@@ -3011,6 +3028,7 @@
           <t>50</t>
         </is>
       </c>
+      <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
           <t>18/01/2021</t>
@@ -3266,6 +3284,7 @@
           <t>55</t>
         </is>
       </c>
+      <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
           <t>04/06/2021</t>
@@ -3365,6 +3384,7 @@
           <t>57</t>
         </is>
       </c>
+      <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr">
         <is>
           <t>11/07/2021</t>
@@ -3620,6 +3640,7 @@
           <t>62</t>
         </is>
       </c>
+      <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr">
         <is>
           <t>13/09/2021</t>
@@ -3979,6 +4000,7 @@
           <t>69</t>
         </is>
       </c>
+      <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr">
         <is>
           <t>18/01/2023</t>
@@ -4130,6 +4152,7 @@
           <t>72</t>
         </is>
       </c>
+      <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr">
         <is>
           <t>20/03/2023</t>
@@ -4142,7 +4165,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -6761,805 +6784,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4466</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>8.76%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4467</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>8</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4468</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>8</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>1.84%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4474</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4475</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>3</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>10.34%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4478</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4492</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>8</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0.88%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4494</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4496</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>9</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4519</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4520</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>3</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>20.83%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4522</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4605</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>3</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>13.00%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4608</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>3</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>12.96%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4614</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>3</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>7.24%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4693</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4694</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>8</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>2.04%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4726</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4729</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4734</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>8</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>0.99%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4442</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4444</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>50.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4446</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4448</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4466</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4467</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4468</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4475</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4478</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4492</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4496</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4519</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4520</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>40.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4522</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4605</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4608</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4614</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4694</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4726</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4729</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>